--- a/biology/Botanique/Bernard_Boullard/Bernard_Boullard.xlsx
+++ b/biology/Botanique/Bernard_Boullard/Bernard_Boullard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard Boullard, né le 12 février 1927 à Annebault (Calvados), est un professeur de biologie végétale français.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d’une famille paysanne normande, il suit la formation d’instituteur à l’École normale de Caen. 
 Il est ainsi instituteur en octobre 1947, mais par passion pour la botanique, il approfondit sa formation à l’Université de Caen dans le laboratoire Noël Bernard, sous la direction de Fernand Moreau.
 Nommé assistant stagiaire de Botanique à la Faculté des sciences de Caen en octobre 1953, il soutient une thèse de doctorat sur les relations entre les fougères et les champignons (La mycotrophie chez les ptéridophytes) le 8 novembre 1955.
-Nommé maître de conférences de Botanique à Rouen le 1er octobre 1961[1], il devient professeur en 1967.
+Nommé maître de conférences de Botanique à Rouen le 1er octobre 1961, il devient professeur en 1967.
 Il étudie particulièrement les relations entre les champignons et les végétaux. Deux espèces de champignons ont été nommées en son honneur : le Microsporon Boullardii et le Hoenbuelia Boullardii.
 Il étudie aussi l’influence de la pollution atmosphérique sur les végétaux dans la région rouennaise (1969), puis celles de la pollution de l’eau et des sols (1972).
-Le 24 février 1968, il est admis à l’Académie des sciences, belles-lettres et arts de Rouen, qu’il préside en 1976-1977[2].
+Le 24 février 1968, il est admis à l’Académie des sciences, belles-lettres et arts de Rouen, qu’il préside en 1976-1977.
 Il reçoit les Palmes académiques en 1972, et est promu commandeur en 1979.
 Il est auteur de nombreux ouvrages sur les plantes et les champignons.
 Membre de l’Académie d’agriculture de France, section « Bois et forêts » (1987).
@@ -551,7 +565,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les champignons du sol : écologie, méthodes d'étude, Rouen, 1967
 Vie intense et cachée du sol : essai de pédobiologie végétale, Paris, Flammarion, 1967
@@ -595,7 +611,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commandeur de l'ordre des Palmes académiques (1979)
  Officier de l'ordre national du Mérite
